--- a/Get Terminal Info.xlsx
+++ b/Get Terminal Info.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>Container</t>
   </si>
@@ -120,7 +120,136 @@
     <t>FREIGHT_BL_HOLD_STATUS</t>
   </si>
   <si>
-    <t/>
+    <t>CCLU7723702</t>
+  </si>
+  <si>
+    <t>NO (CONTAINER DEPARTED)</t>
+  </si>
+  <si>
+    <t>40HQ</t>
+  </si>
+  <si>
+    <t>OOL</t>
+  </si>
+  <si>
+    <t>COSCO SPAIN 057</t>
+  </si>
+  <si>
+    <t>-$1.00</t>
+  </si>
+  <si>
+    <t>05/25/2023 20:15 (Actual)</t>
+  </si>
+  <si>
+    <t>DEPARTED</t>
+  </si>
+  <si>
+    <t>5/26/2023</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>CSNU8069786</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>COS</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>6/1/2023</t>
+  </si>
+  <si>
+    <t>05/26/2023 19:09 (Actual)</t>
+  </si>
+  <si>
+    <t>GROUNDED</t>
+  </si>
+  <si>
+    <t>05/30</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>POPC</t>
+  </si>
+  <si>
+    <t>3591298</t>
+  </si>
+  <si>
+    <t>5/27/2023 02:25</t>
+  </si>
+  <si>
+    <t>RELEASED</t>
+  </si>
+  <si>
+    <t>5/13/2023 04:05</t>
+  </si>
+  <si>
+    <t>5/7/2023 03:11</t>
+  </si>
+  <si>
+    <t>BMOU5128510</t>
+  </si>
+  <si>
+    <t>5/31/2023</t>
+  </si>
+  <si>
+    <t>05/26/2023 01:37 (Actual)</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>3586514</t>
+  </si>
+  <si>
+    <t>5/13/2023 04:10</t>
+  </si>
+  <si>
+    <t>5/5/2023 20:34</t>
+  </si>
+  <si>
+    <t>OOCU8990868</t>
+  </si>
+  <si>
+    <t>COSCO SHIPPING ANDES 029</t>
+  </si>
+  <si>
+    <t>05/20/2023 20:13 (Actual)</t>
+  </si>
+  <si>
+    <t>5/24/2023</t>
+  </si>
+  <si>
+    <t>CCLU7308661</t>
+  </si>
+  <si>
+    <t>6/2/2023</t>
+  </si>
+  <si>
+    <t>05/28/2023 08:13 (Actual)</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>3593876</t>
+  </si>
+  <si>
+    <t>5/13/2023 04:17</t>
+  </si>
+  <si>
+    <t>5/5/2023 20:32</t>
   </si>
   <si>
     <t>Container ID</t>
@@ -208,12 +337,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -587,86 +713,86 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="2.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="2.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="2" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
@@ -885,43 +1011,43 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="29.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="3" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="3" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="3" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="3" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="3" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="3" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="3" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="3" width="30.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="3" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="3" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="3" width="24.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="3" width="32.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="3" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="3" width="25.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="29.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="29.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="2" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="2" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="2" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="2" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="2" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="2" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="2" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="2" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="2" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="2" width="30.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="2" width="21.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="2" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="2" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="2" width="32.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="2" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="2" width="25.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1020,425 +1146,458 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>31</v>
+      <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>31</v>
+      <c r="P2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="R2" s="1"/>
-      <c r="S2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>31</v>
+      <c r="S2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>31</v>
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="2" t="s">
-        <v>31</v>
+      <c r="M3" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>31</v>
+      <c r="P3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="R3" s="1"/>
-      <c r="S3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>31</v>
+      <c r="S3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="U3" s="1"/>
-      <c r="V3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>31</v>
+      <c r="V3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>31</v>
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="2" t="s">
-        <v>31</v>
+      <c r="M4" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>31</v>
+      <c r="P4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>31</v>
+      <c r="S4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="U4" s="1"/>
-      <c r="V4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>31</v>
+      <c r="V4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>31</v>
+      <c r="I5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>31</v>
+      <c r="P5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>31</v>
+      <c r="S5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>31</v>
+      <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="2" t="s">
-        <v>31</v>
+      <c r="M6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>31</v>
+      <c r="P6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>31</v>
+      <c r="S6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="U6" s="1"/>
-      <c r="V6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="V6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Get Terminal Info.xlsx
+++ b/Get Terminal Info.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="49">
   <si>
     <t>Container</t>
   </si>
@@ -120,136 +120,7 @@
     <t>FREIGHT_BL_HOLD_STATUS</t>
   </si>
   <si>
-    <t>CCLU7723702</t>
-  </si>
-  <si>
-    <t>NO (CONTAINER DEPARTED)</t>
-  </si>
-  <si>
-    <t>40HQ</t>
-  </si>
-  <si>
-    <t>OOL</t>
-  </si>
-  <si>
-    <t>COSCO SPAIN 057</t>
-  </si>
-  <si>
-    <t>-$1.00</t>
-  </si>
-  <si>
-    <t>05/25/2023 20:15 (Actual)</t>
-  </si>
-  <si>
-    <t>DEPARTED</t>
-  </si>
-  <si>
-    <t>5/26/2023</t>
-  </si>
-  <si>
-    <t>Full</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>CSNU8069786</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>COS</t>
-  </si>
-  <si>
-    <t>$0.00</t>
-  </si>
-  <si>
-    <t>6/1/2023</t>
-  </si>
-  <si>
-    <t>05/26/2023 19:09 (Actual)</t>
-  </si>
-  <si>
-    <t>GROUNDED</t>
-  </si>
-  <si>
-    <t>05/30</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>POPC</t>
-  </si>
-  <si>
-    <t>3591298</t>
-  </si>
-  <si>
-    <t>5/27/2023 02:25</t>
-  </si>
-  <si>
-    <t>RELEASED</t>
-  </si>
-  <si>
-    <t>5/13/2023 04:05</t>
-  </si>
-  <si>
-    <t>5/7/2023 03:11</t>
-  </si>
-  <si>
-    <t>BMOU5128510</t>
-  </si>
-  <si>
-    <t>5/31/2023</t>
-  </si>
-  <si>
-    <t>05/26/2023 01:37 (Actual)</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>3586514</t>
-  </si>
-  <si>
-    <t>5/13/2023 04:10</t>
-  </si>
-  <si>
-    <t>5/5/2023 20:34</t>
-  </si>
-  <si>
-    <t>OOCU8990868</t>
-  </si>
-  <si>
-    <t>COSCO SHIPPING ANDES 029</t>
-  </si>
-  <si>
-    <t>05/20/2023 20:13 (Actual)</t>
-  </si>
-  <si>
-    <t>5/24/2023</t>
-  </si>
-  <si>
-    <t>CCLU7308661</t>
-  </si>
-  <si>
-    <t>6/2/2023</t>
-  </si>
-  <si>
-    <t>05/28/2023 08:13 (Actual)</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>3593876</t>
-  </si>
-  <si>
-    <t>5/13/2023 04:17</t>
-  </si>
-  <si>
-    <t>5/5/2023 20:32</t>
+    <t/>
   </si>
   <si>
     <t>Container ID</t>
@@ -337,9 +208,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -713,86 +587,86 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="2.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="2" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="2.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
@@ -1017,40 +891,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="29.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="2" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="2" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="2" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="2" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="2" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="2" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="2" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="2" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="2" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="2" width="30.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="2" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="2" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="2" width="24.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="2" width="32.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="2" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="2" width="25.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="29.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="29.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="3" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="3" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="3" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="3" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="3" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="3" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="3" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="3" width="30.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="3" width="21.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="3" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="3" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="3" width="32.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="3" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="3" width="25.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1145,428 +1019,426 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>35</v>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>40</v>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>41</v>
+      <c r="P2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>41</v>
+      <c r="S2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>48</v>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>40</v>
+      <c r="M3" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>50</v>
+      <c r="P3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="R3" s="1"/>
-      <c r="S3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>52</v>
+      <c r="S3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="U3" s="1"/>
-      <c r="V3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>54</v>
+      <c r="V3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>48</v>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
-        <v>40</v>
+      <c r="M4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>60</v>
+      <c r="P4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>61</v>
+      <c r="S4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="U4" s="1"/>
-      <c r="V4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>54</v>
+      <c r="V4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>65</v>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>40</v>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>41</v>
+      <c r="P5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>41</v>
+      <c r="S5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>48</v>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
-        <v>40</v>
+      <c r="M6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>71</v>
+      <c r="P6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>72</v>
+      <c r="S6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="U6" s="1"/>
-      <c r="V6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>54</v>
+      <c r="V6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
